--- a/xlsx/A–J效果_intext.xlsx
+++ b/xlsx/A–J效果_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%87%9F%E4%BA%8B%E6%A5%AD</t>
   </si>
   <si>
-    <t>公營事業</t>
+    <t>公营事业</t>
   </si>
   <si>
     <t>政策_政策_经济政策_A–J效果</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC</t>
   </si>
   <si>
-    <t>資本</t>
+    <t>资本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/American_Economic_Review</t>
